--- a/Code/Results/Cases/Case_3_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004160940928943</v>
+        <v>1.028925964812128</v>
       </c>
       <c r="D2">
-        <v>1.023915974963797</v>
+        <v>1.038843469303303</v>
       </c>
       <c r="E2">
-        <v>1.010059372432349</v>
+        <v>1.028830208089775</v>
       </c>
       <c r="F2">
-        <v>1.024620149769026</v>
+        <v>1.047518908768287</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043603850560875</v>
+        <v>1.035813789077052</v>
       </c>
       <c r="J2">
-        <v>1.026217907249564</v>
+        <v>1.034075577605533</v>
       </c>
       <c r="K2">
-        <v>1.035051881398477</v>
+        <v>1.041630348385935</v>
       </c>
       <c r="L2">
-        <v>1.021380320793506</v>
+        <v>1.031645884918717</v>
       </c>
       <c r="M2">
-        <v>1.03574682010076</v>
+        <v>1.050281320580725</v>
       </c>
       <c r="N2">
-        <v>1.012644375620438</v>
+        <v>1.015367270186937</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007838662336139</v>
+        <v>1.029710673985021</v>
       </c>
       <c r="D3">
-        <v>1.026799249291345</v>
+        <v>1.03948803409868</v>
       </c>
       <c r="E3">
-        <v>1.012938673771675</v>
+        <v>1.029492505515222</v>
       </c>
       <c r="F3">
-        <v>1.028407402192067</v>
+        <v>1.048396060633527</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044596308716012</v>
+        <v>1.03598233251165</v>
       </c>
       <c r="J3">
-        <v>1.028117894750439</v>
+        <v>1.034501946087754</v>
       </c>
       <c r="K3">
-        <v>1.037100337758914</v>
+        <v>1.042085446852098</v>
       </c>
       <c r="L3">
-        <v>1.023408635877005</v>
+        <v>1.032116593096212</v>
       </c>
       <c r="M3">
-        <v>1.038689262841676</v>
+        <v>1.050970163590061</v>
       </c>
       <c r="N3">
-        <v>1.013282901436941</v>
+        <v>1.015509660008074</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010176554225988</v>
+        <v>1.030219121120257</v>
       </c>
       <c r="D4">
-        <v>1.028634917218343</v>
+        <v>1.03990572333368</v>
       </c>
       <c r="E4">
-        <v>1.014774765504919</v>
+        <v>1.029922035725229</v>
       </c>
       <c r="F4">
-        <v>1.030820071362307</v>
+        <v>1.048964803475374</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045219183472989</v>
+        <v>1.036090534481582</v>
       </c>
       <c r="J4">
-        <v>1.029323477005987</v>
+        <v>1.034777846343683</v>
       </c>
       <c r="K4">
-        <v>1.038399604002247</v>
+        <v>1.042379850819028</v>
       </c>
       <c r="L4">
-        <v>1.024698083472048</v>
+        <v>1.032421468773213</v>
       </c>
       <c r="M4">
-        <v>1.040560228139988</v>
+        <v>1.051416417675031</v>
       </c>
       <c r="N4">
-        <v>1.013687947286716</v>
+        <v>1.015601766926854</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011149680225624</v>
+        <v>1.030433035159046</v>
       </c>
       <c r="D5">
-        <v>1.0293996343223</v>
+        <v>1.040081464690328</v>
       </c>
       <c r="E5">
-        <v>1.015540368991964</v>
+        <v>1.03010284280823</v>
       </c>
       <c r="F5">
-        <v>1.031825542012169</v>
+        <v>1.049204180270428</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045476496020976</v>
+        <v>1.036135816711095</v>
       </c>
       <c r="J5">
-        <v>1.029824732662623</v>
+        <v>1.034893836247104</v>
       </c>
       <c r="K5">
-        <v>1.038939682262128</v>
+        <v>1.042503598853158</v>
       </c>
       <c r="L5">
-        <v>1.025234794461131</v>
+        <v>1.032549707962351</v>
       </c>
       <c r="M5">
-        <v>1.041339091468801</v>
+        <v>1.051604147179001</v>
       </c>
       <c r="N5">
-        <v>1.013856327897663</v>
+        <v>1.015640481310949</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011312510450454</v>
+        <v>1.030468961765389</v>
       </c>
       <c r="D6">
-        <v>1.029527628592911</v>
+        <v>1.040110980873929</v>
       </c>
       <c r="E6">
-        <v>1.015668553376055</v>
+        <v>1.030133214696263</v>
       </c>
       <c r="F6">
-        <v>1.03199385557488</v>
+        <v>1.049244388888983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045519435712614</v>
+        <v>1.036143407702542</v>
       </c>
       <c r="J6">
-        <v>1.029908572836326</v>
+        <v>1.034913311509298</v>
       </c>
       <c r="K6">
-        <v>1.039030008210068</v>
+        <v>1.042524375514741</v>
       </c>
       <c r="L6">
-        <v>1.025324599372133</v>
+        <v>1.032571243918289</v>
       </c>
       <c r="M6">
-        <v>1.041469420967545</v>
+        <v>1.051635675025223</v>
       </c>
       <c r="N6">
-        <v>1.013884489533563</v>
+        <v>1.01564698118098</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010189595010918</v>
+        <v>1.030221978812429</v>
       </c>
       <c r="D7">
-        <v>1.02864516266086</v>
+        <v>1.039908071031682</v>
       </c>
       <c r="E7">
-        <v>1.014785020019776</v>
+        <v>1.029924450766833</v>
       </c>
       <c r="F7">
-        <v>1.030833540802605</v>
+        <v>1.048968000952794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045222639447399</v>
+        <v>1.036091140354826</v>
       </c>
       <c r="J7">
-        <v>1.029330196523216</v>
+        <v>1.034779396202412</v>
       </c>
       <c r="K7">
-        <v>1.038406844466201</v>
+        <v>1.042381504424273</v>
       </c>
       <c r="L7">
-        <v>1.024705275965811</v>
+        <v>1.032423182040399</v>
       </c>
       <c r="M7">
-        <v>1.040570665297997</v>
+        <v>1.051418925639723</v>
       </c>
       <c r="N7">
-        <v>1.01369020460776</v>
+        <v>1.015602284259872</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005412687414562</v>
+        <v>1.029191017445866</v>
       </c>
       <c r="D8">
-        <v>1.024896717215985</v>
+        <v>1.039061174996206</v>
       </c>
       <c r="E8">
-        <v>1.011038146557259</v>
+        <v>1.029053830648576</v>
       </c>
       <c r="F8">
-        <v>1.02590808828686</v>
+        <v>1.047815103486557</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043943303975759</v>
+        <v>1.035870926104874</v>
       </c>
       <c r="J8">
-        <v>1.026865035776162</v>
+        <v>1.034219667713963</v>
       </c>
       <c r="K8">
-        <v>1.035749685023746</v>
+        <v>1.041784165767752</v>
       </c>
       <c r="L8">
-        <v>1.022070646533658</v>
+        <v>1.031804900811811</v>
       </c>
       <c r="M8">
-        <v>1.03674819137623</v>
+        <v>1.050514008193464</v>
       </c>
       <c r="N8">
-        <v>1.012861877421529</v>
+        <v>1.01541539718036</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9966609612031985</v>
+        <v>1.027379679639352</v>
       </c>
       <c r="D9">
-        <v>1.018053005769104</v>
+        <v>1.037573611831102</v>
       </c>
       <c r="E9">
-        <v>1.00422055549824</v>
+        <v>1.027527272866359</v>
       </c>
       <c r="F9">
-        <v>1.016925761453883</v>
+        <v>1.045792579392228</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041537307802499</v>
+        <v>1.035476350159882</v>
       </c>
       <c r="J9">
-        <v>1.022332183039608</v>
+        <v>1.033233497982454</v>
       </c>
       <c r="K9">
-        <v>1.0308598216878</v>
+        <v>1.040731064815256</v>
       </c>
       <c r="L9">
-        <v>1.017245526269471</v>
+        <v>1.030717739772449</v>
       </c>
       <c r="M9">
-        <v>1.029750071559282</v>
+        <v>1.048923539973763</v>
       </c>
       <c r="N9">
-        <v>1.011337976623646</v>
+        <v>1.015085878154152</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9905815753929874</v>
+        <v>1.0261758245541</v>
       </c>
       <c r="D10">
-        <v>1.013317490206813</v>
+        <v>1.036585226591829</v>
       </c>
       <c r="E10">
-        <v>0.9995187724159345</v>
+        <v>1.02651478229755</v>
       </c>
       <c r="F10">
-        <v>1.01071548214976</v>
+        <v>1.044450423562777</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039825859451307</v>
+        <v>1.035208952928712</v>
       </c>
       <c r="J10">
-        <v>1.019173922514198</v>
+        <v>1.032576224308934</v>
       </c>
       <c r="K10">
-        <v>1.027450385530724</v>
+        <v>1.040028735522865</v>
       </c>
       <c r="L10">
-        <v>1.013896721014749</v>
+        <v>1.029994616308769</v>
       </c>
       <c r="M10">
-        <v>1.024893923472143</v>
+        <v>1.047866098998709</v>
       </c>
       <c r="N10">
-        <v>1.010275784066495</v>
+        <v>1.014866092077952</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9878862473884807</v>
+        <v>1.025655443213868</v>
       </c>
       <c r="D11">
-        <v>1.011222910460976</v>
+        <v>1.03615805701446</v>
       </c>
       <c r="E11">
-        <v>0.9974428197471197</v>
+        <v>1.026077623753849</v>
       </c>
       <c r="F11">
-        <v>1.007969357530278</v>
+        <v>1.04387075039505</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039057990335288</v>
+        <v>1.035092145322789</v>
       </c>
       <c r="J11">
-        <v>1.017771802616051</v>
+        <v>1.032291674710407</v>
       </c>
       <c r="K11">
-        <v>1.025936237863226</v>
+        <v>1.039724574725024</v>
       </c>
       <c r="L11">
-        <v>1.012413122406313</v>
+        <v>1.029681905224921</v>
       </c>
       <c r="M11">
-        <v>1.02274253225108</v>
+        <v>1.047408918930367</v>
       </c>
       <c r="N11">
-        <v>1.009804149160527</v>
+        <v>1.01477090285362</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.986875195689517</v>
+        <v>1.025462286848936</v>
       </c>
       <c r="D12">
-        <v>1.010437997802907</v>
+        <v>1.035999510508889</v>
       </c>
       <c r="E12">
-        <v>0.9966654438567417</v>
+        <v>1.025915434366085</v>
       </c>
       <c r="F12">
-        <v>1.006940364385625</v>
+        <v>1.043655659820562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038768624474268</v>
+        <v>1.035048604846685</v>
       </c>
       <c r="J12">
-        <v>1.017245598205089</v>
+        <v>1.032185989775638</v>
       </c>
       <c r="K12">
-        <v>1.025367917701722</v>
+        <v>1.039611590141812</v>
       </c>
       <c r="L12">
-        <v>1.011856808756846</v>
+        <v>1.029565812874547</v>
       </c>
       <c r="M12">
-        <v>1.02193579504993</v>
+        <v>1.047239208718094</v>
       </c>
       <c r="N12">
-        <v>1.009627139997141</v>
+        <v>1.014735542747969</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9870925243653611</v>
+        <v>1.025503713341329</v>
       </c>
       <c r="D13">
-        <v>1.010606680649836</v>
+        <v>1.036033513662052</v>
       </c>
       <c r="E13">
-        <v>0.9968324818516895</v>
+        <v>1.025950215876336</v>
       </c>
       <c r="F13">
-        <v>1.007161498899761</v>
+        <v>1.043701787224699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03883088398451</v>
+        <v>1.035057951335138</v>
       </c>
       <c r="J13">
-        <v>1.017358718299411</v>
+        <v>1.032208659104034</v>
       </c>
       <c r="K13">
-        <v>1.025490094771088</v>
+        <v>1.039635825954365</v>
       </c>
       <c r="L13">
-        <v>1.011976380324791</v>
+        <v>1.029590712227631</v>
       </c>
       <c r="M13">
-        <v>1.022109192597792</v>
+        <v>1.047275607271512</v>
       </c>
       <c r="N13">
-        <v>1.009665192646398</v>
+        <v>1.014743127720206</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9878028778291301</v>
+        <v>1.025639474054594</v>
       </c>
       <c r="D14">
-        <v>1.011158171560405</v>
+        <v>1.036144948984459</v>
       </c>
       <c r="E14">
-        <v>0.9973786911515138</v>
+        <v>1.026064213225598</v>
       </c>
       <c r="F14">
-        <v>1.007884485760475</v>
+        <v>1.043852966321531</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039034156530202</v>
+        <v>1.0350885493689</v>
       </c>
       <c r="J14">
-        <v>1.017728417643029</v>
+        <v>1.03228293856028</v>
       </c>
       <c r="K14">
-        <v>1.025889381939593</v>
+        <v>1.03971523549256</v>
       </c>
       <c r="L14">
-        <v>1.012367245413353</v>
+        <v>1.02967230771228</v>
       </c>
       <c r="M14">
-        <v>1.022676004268129</v>
+        <v>1.047394888441597</v>
       </c>
       <c r="N14">
-        <v>1.009789555106523</v>
+        <v>1.01476798002633</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9882392265192022</v>
+        <v>1.025723138844797</v>
       </c>
       <c r="D15">
-        <v>1.011497041630557</v>
+        <v>1.036213624360202</v>
       </c>
       <c r="E15">
-        <v>0.9977143893441786</v>
+        <v>1.026134476091468</v>
       </c>
       <c r="F15">
-        <v>1.008328742442653</v>
+        <v>1.043946142743368</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039158846533111</v>
+        <v>1.03510738158476</v>
       </c>
       <c r="J15">
-        <v>1.01795548058207</v>
+        <v>1.03232870587686</v>
       </c>
       <c r="K15">
-        <v>1.026134607782423</v>
+        <v>1.03976416161463</v>
       </c>
       <c r="L15">
-        <v>1.012607369918745</v>
+        <v>1.029722589704555</v>
       </c>
       <c r="M15">
-        <v>1.023024217189173</v>
+        <v>1.047468395716731</v>
       </c>
       <c r="N15">
-        <v>1.009865935346047</v>
+        <v>1.014783292023463</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9907590933558152</v>
+        <v>1.026210379581699</v>
       </c>
       <c r="D16">
-        <v>1.013455549214362</v>
+        <v>1.03661359361386</v>
       </c>
       <c r="E16">
-        <v>0.9996556810730228</v>
+        <v>1.026543821713312</v>
       </c>
       <c r="F16">
-        <v>1.010896498830055</v>
+        <v>1.044488926117711</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039876245763</v>
+        <v>1.035216683577858</v>
       </c>
       <c r="J16">
-        <v>1.01926623132607</v>
+        <v>1.032595110182965</v>
       </c>
       <c r="K16">
-        <v>1.02755005934369</v>
+        <v>1.040048920792749</v>
       </c>
       <c r="L16">
-        <v>1.013994459054207</v>
+        <v>1.030015378594429</v>
       </c>
       <c r="M16">
-        <v>1.025035653536296</v>
+        <v>1.047896455414054</v>
       </c>
       <c r="N16">
-        <v>1.010306832947841</v>
+        <v>1.014872409084038</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9923225960741188</v>
+        <v>1.026516253969276</v>
       </c>
       <c r="D17">
-        <v>1.014672083267281</v>
+        <v>1.036864701387914</v>
       </c>
       <c r="E17">
-        <v>1.00086250197911</v>
+        <v>1.02680093121882</v>
       </c>
       <c r="F17">
-        <v>1.012491645354289</v>
+        <v>1.044829799975853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040318994367358</v>
+        <v>1.03528497250869</v>
       </c>
       <c r="J17">
-        <v>1.020079036487266</v>
+        <v>1.032762234009925</v>
       </c>
       <c r="K17">
-        <v>1.028427657020061</v>
+        <v>1.040227530971736</v>
       </c>
       <c r="L17">
-        <v>1.014855425293264</v>
+        <v>1.03019914709136</v>
       </c>
       <c r="M17">
-        <v>1.026284139296207</v>
+        <v>1.048165154344613</v>
       </c>
       <c r="N17">
-        <v>1.010580219296864</v>
+        <v>1.014928304735331</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9932285211055597</v>
+        <v>1.026694751637976</v>
       </c>
       <c r="D18">
-        <v>1.01537743392771</v>
+        <v>1.037011246110678</v>
       </c>
       <c r="E18">
-        <v>1.001562574086474</v>
+        <v>1.026951019950279</v>
       </c>
       <c r="F18">
-        <v>1.013416592043968</v>
+        <v>1.045028769470612</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040574664609133</v>
+        <v>1.035324705547723</v>
       </c>
       <c r="J18">
-        <v>1.020549810377482</v>
+        <v>1.032859719656374</v>
       </c>
       <c r="K18">
-        <v>1.028935908960196</v>
+        <v>1.040331706580781</v>
       </c>
       <c r="L18">
-        <v>1.015354389867257</v>
+        <v>1.030306375236676</v>
       </c>
       <c r="M18">
-        <v>1.027007687701852</v>
+        <v>1.048321949191326</v>
       </c>
       <c r="N18">
-        <v>1.010738556793992</v>
+        <v>1.014960905722573</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9935364065047102</v>
+        <v>1.026755629314438</v>
       </c>
       <c r="D19">
-        <v>1.015617230279994</v>
+        <v>1.037061227212396</v>
       </c>
       <c r="E19">
-        <v>1.001800635819995</v>
+        <v>1.027002216810699</v>
       </c>
       <c r="F19">
-        <v>1.013731057806866</v>
+        <v>1.045096637208958</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040661407854325</v>
+        <v>1.035338236716917</v>
       </c>
       <c r="J19">
-        <v>1.020709774616519</v>
+        <v>1.032892960575595</v>
       </c>
       <c r="K19">
-        <v>1.029108599309311</v>
+        <v>1.040367226932962</v>
       </c>
       <c r="L19">
-        <v>1.015523983188267</v>
+        <v>1.030342943849427</v>
       </c>
       <c r="M19">
-        <v>1.027253615544589</v>
+        <v>1.048375423542915</v>
       </c>
       <c r="N19">
-        <v>1.010792357042597</v>
+        <v>1.014972021462936</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9921554748036748</v>
+        <v>1.02648342760117</v>
       </c>
       <c r="D20">
-        <v>1.01454200043927</v>
+        <v>1.036837751838336</v>
       </c>
       <c r="E20">
-        <v>1.000733421157844</v>
+        <v>1.026773333261235</v>
       </c>
       <c r="F20">
-        <v>1.012321070327401</v>
+        <v>1.044793212574526</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040271759074503</v>
+        <v>1.035277655960396</v>
       </c>
       <c r="J20">
-        <v>1.019992175170228</v>
+        <v>1.03274430266327</v>
       </c>
       <c r="K20">
-        <v>1.02833387668246</v>
+        <v>1.040208368264331</v>
       </c>
       <c r="L20">
-        <v>1.014763386486647</v>
+        <v>1.030179426417067</v>
       </c>
       <c r="M20">
-        <v>1.02615067401853</v>
+        <v>1.048136318517304</v>
       </c>
       <c r="N20">
-        <v>1.010551004264691</v>
+        <v>1.014922307864425</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9875939729805147</v>
+        <v>1.025599492127206</v>
       </c>
       <c r="D21">
-        <v>1.010995963751522</v>
+        <v>1.036112130640348</v>
       </c>
       <c r="E21">
-        <v>0.9972180214747474</v>
+        <v>1.026030638565784</v>
       </c>
       <c r="F21">
-        <v>1.007671834747625</v>
+        <v>1.043808441593959</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038974413242063</v>
+        <v>1.035079543226271</v>
       </c>
       <c r="J21">
-        <v>1.01761970098598</v>
+        <v>1.032261064840265</v>
       </c>
       <c r="K21">
-        <v>1.025771966414675</v>
+        <v>1.039691851509226</v>
       </c>
       <c r="L21">
-        <v>1.012252291667313</v>
+        <v>1.029648278139655</v>
       </c>
       <c r="M21">
-        <v>1.022509305103457</v>
+        <v>1.047359760146556</v>
       </c>
       <c r="N21">
-        <v>1.009752984327692</v>
+        <v>1.014760661709265</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9846685399064614</v>
+        <v>1.025044517094998</v>
       </c>
       <c r="D22">
-        <v>1.008726406923406</v>
+        <v>1.035656618099681</v>
       </c>
       <c r="E22">
-        <v>0.9949713094720688</v>
+        <v>1.025564781587093</v>
       </c>
       <c r="F22">
-        <v>1.004696625270975</v>
+        <v>1.043190584741319</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038134674671932</v>
+        <v>1.034954097446572</v>
       </c>
       <c r="J22">
-        <v>1.016096713044613</v>
+        <v>1.031957289395722</v>
       </c>
       <c r="K22">
-        <v>1.024126951744474</v>
+        <v>1.039367064536761</v>
       </c>
       <c r="L22">
-        <v>1.010643048291108</v>
+        <v>1.029314686283415</v>
       </c>
       <c r="M22">
-        <v>1.020175611754554</v>
+        <v>1.046872126015633</v>
       </c>
       <c r="N22">
-        <v>1.009240655380139</v>
+        <v>1.014659013609341</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9862249632568127</v>
+        <v>1.025338644334394</v>
       </c>
       <c r="D23">
-        <v>1.009933430083928</v>
+        <v>1.035898025561081</v>
       </c>
       <c r="E23">
-        <v>0.9961658777776862</v>
+        <v>1.025811635818158</v>
       </c>
       <c r="F23">
-        <v>1.006278910295094</v>
+        <v>1.043517997681559</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038582156573671</v>
+        <v>1.035020682215169</v>
       </c>
       <c r="J23">
-        <v>1.016907116358988</v>
+        <v>1.032118320823233</v>
       </c>
       <c r="K23">
-        <v>1.025002325025637</v>
+        <v>1.039539242849185</v>
       </c>
       <c r="L23">
-        <v>1.011499091430367</v>
+        <v>1.029491494826847</v>
       </c>
       <c r="M23">
-        <v>1.021417044896665</v>
+        <v>1.047130570816514</v>
       </c>
       <c r="N23">
-        <v>1.009513276505403</v>
+        <v>1.014712900429375</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9922310083453298</v>
+        <v>1.026498260157467</v>
       </c>
       <c r="D24">
-        <v>1.014600792332242</v>
+        <v>1.03684992893961</v>
       </c>
       <c r="E24">
-        <v>1.00079175909232</v>
+        <v>1.026785803216395</v>
       </c>
       <c r="F24">
-        <v>1.012398162732228</v>
+        <v>1.044809744403059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040293110626967</v>
+        <v>1.035280962298815</v>
       </c>
       <c r="J24">
-        <v>1.020031434311014</v>
+        <v>1.03275240505125</v>
       </c>
       <c r="K24">
-        <v>1.028376263201285</v>
+        <v>1.040217027081626</v>
       </c>
       <c r="L24">
-        <v>1.014804984805885</v>
+        <v>1.030188337220324</v>
       </c>
       <c r="M24">
-        <v>1.026210995649389</v>
+        <v>1.048149347978711</v>
       </c>
       <c r="N24">
-        <v>1.010564208749464</v>
+        <v>1.014925017598499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9989651115735256</v>
+        <v>1.027847309027563</v>
       </c>
       <c r="D25">
-        <v>1.019851798528677</v>
+        <v>1.037957605001606</v>
       </c>
       <c r="E25">
-        <v>1.006009767062299</v>
+        <v>1.027921013879582</v>
       </c>
       <c r="F25">
-        <v>1.019285649211232</v>
+        <v>1.046314367722711</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042177833683833</v>
+        <v>1.035579126846466</v>
       </c>
       <c r="J25">
-        <v>1.023527354106262</v>
+        <v>1.033488421631137</v>
       </c>
       <c r="K25">
-        <v>1.03214956345858</v>
+        <v>1.041003368948799</v>
       </c>
       <c r="L25">
-        <v>1.018515500034927</v>
+        <v>1.030998512208949</v>
       </c>
       <c r="M25">
-        <v>1.031591779409307</v>
+        <v>1.049334215871869</v>
       </c>
       <c r="N25">
-        <v>1.011739862366881</v>
+        <v>1.015171087567408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028925964812128</v>
+        <v>1.004160940928942</v>
       </c>
       <c r="D2">
-        <v>1.038843469303303</v>
+        <v>1.023915974963796</v>
       </c>
       <c r="E2">
-        <v>1.028830208089775</v>
+        <v>1.010059372432347</v>
       </c>
       <c r="F2">
-        <v>1.047518908768287</v>
+        <v>1.024620149769025</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035813789077052</v>
+        <v>1.043603850560874</v>
       </c>
       <c r="J2">
-        <v>1.034075577605533</v>
+        <v>1.026217907249563</v>
       </c>
       <c r="K2">
-        <v>1.041630348385935</v>
+        <v>1.035051881398477</v>
       </c>
       <c r="L2">
-        <v>1.031645884918717</v>
+        <v>1.021380320793505</v>
       </c>
       <c r="M2">
-        <v>1.050281320580725</v>
+        <v>1.035746820100759</v>
       </c>
       <c r="N2">
-        <v>1.015367270186937</v>
+        <v>1.012644375620438</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029710673985021</v>
+        <v>1.007838662336138</v>
       </c>
       <c r="D3">
-        <v>1.03948803409868</v>
+        <v>1.026799249291345</v>
       </c>
       <c r="E3">
-        <v>1.029492505515222</v>
+        <v>1.012938673771674</v>
       </c>
       <c r="F3">
-        <v>1.048396060633527</v>
+        <v>1.028407402192067</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03598233251165</v>
+        <v>1.044596308716012</v>
       </c>
       <c r="J3">
-        <v>1.034501946087754</v>
+        <v>1.028117894750439</v>
       </c>
       <c r="K3">
-        <v>1.042085446852098</v>
+        <v>1.037100337758914</v>
       </c>
       <c r="L3">
-        <v>1.032116593096212</v>
+        <v>1.023408635877005</v>
       </c>
       <c r="M3">
-        <v>1.050970163590061</v>
+        <v>1.038689262841675</v>
       </c>
       <c r="N3">
-        <v>1.015509660008074</v>
+        <v>1.013282901436941</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030219121120257</v>
+        <v>1.010176554225988</v>
       </c>
       <c r="D4">
-        <v>1.03990572333368</v>
+        <v>1.028634917218343</v>
       </c>
       <c r="E4">
-        <v>1.029922035725229</v>
+        <v>1.014774765504919</v>
       </c>
       <c r="F4">
-        <v>1.048964803475374</v>
+        <v>1.030820071362307</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036090534481582</v>
+        <v>1.045219183472989</v>
       </c>
       <c r="J4">
-        <v>1.034777846343683</v>
+        <v>1.029323477005987</v>
       </c>
       <c r="K4">
-        <v>1.042379850819028</v>
+        <v>1.038399604002247</v>
       </c>
       <c r="L4">
-        <v>1.032421468773213</v>
+        <v>1.024698083472048</v>
       </c>
       <c r="M4">
-        <v>1.051416417675031</v>
+        <v>1.040560228139988</v>
       </c>
       <c r="N4">
-        <v>1.015601766926854</v>
+        <v>1.013687947286716</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030433035159046</v>
+        <v>1.011149680225623</v>
       </c>
       <c r="D5">
-        <v>1.040081464690328</v>
+        <v>1.029399634322299</v>
       </c>
       <c r="E5">
-        <v>1.03010284280823</v>
+        <v>1.015540368991963</v>
       </c>
       <c r="F5">
-        <v>1.049204180270428</v>
+        <v>1.031825542012169</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036135816711095</v>
+        <v>1.045476496020976</v>
       </c>
       <c r="J5">
-        <v>1.034893836247104</v>
+        <v>1.029824732662623</v>
       </c>
       <c r="K5">
-        <v>1.042503598853158</v>
+        <v>1.038939682262128</v>
       </c>
       <c r="L5">
-        <v>1.032549707962351</v>
+        <v>1.025234794461131</v>
       </c>
       <c r="M5">
-        <v>1.051604147179001</v>
+        <v>1.041339091468801</v>
       </c>
       <c r="N5">
-        <v>1.015640481310949</v>
+        <v>1.013856327897662</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030468961765389</v>
+        <v>1.011312510450453</v>
       </c>
       <c r="D6">
-        <v>1.040110980873929</v>
+        <v>1.029527628592911</v>
       </c>
       <c r="E6">
-        <v>1.030133214696263</v>
+        <v>1.015668553376055</v>
       </c>
       <c r="F6">
-        <v>1.049244388888983</v>
+        <v>1.031993855574881</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036143407702542</v>
+        <v>1.045519435712614</v>
       </c>
       <c r="J6">
-        <v>1.034913311509298</v>
+        <v>1.029908572836326</v>
       </c>
       <c r="K6">
-        <v>1.042524375514741</v>
+        <v>1.039030008210068</v>
       </c>
       <c r="L6">
-        <v>1.032571243918289</v>
+        <v>1.025324599372133</v>
       </c>
       <c r="M6">
-        <v>1.051635675025223</v>
+        <v>1.041469420967545</v>
       </c>
       <c r="N6">
-        <v>1.01564698118098</v>
+        <v>1.013884489533563</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030221978812429</v>
+        <v>1.010189595010918</v>
       </c>
       <c r="D7">
-        <v>1.039908071031682</v>
+        <v>1.02864516266086</v>
       </c>
       <c r="E7">
-        <v>1.029924450766833</v>
+        <v>1.014785020019775</v>
       </c>
       <c r="F7">
-        <v>1.048968000952794</v>
+        <v>1.030833540802605</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036091140354826</v>
+        <v>1.045222639447399</v>
       </c>
       <c r="J7">
-        <v>1.034779396202412</v>
+        <v>1.029330196523216</v>
       </c>
       <c r="K7">
-        <v>1.042381504424273</v>
+        <v>1.038406844466201</v>
       </c>
       <c r="L7">
-        <v>1.032423182040399</v>
+        <v>1.02470527596581</v>
       </c>
       <c r="M7">
-        <v>1.051418925639723</v>
+        <v>1.040570665297996</v>
       </c>
       <c r="N7">
-        <v>1.015602284259872</v>
+        <v>1.01369020460776</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029191017445866</v>
+        <v>1.005412687414563</v>
       </c>
       <c r="D8">
-        <v>1.039061174996206</v>
+        <v>1.024896717215986</v>
       </c>
       <c r="E8">
-        <v>1.029053830648576</v>
+        <v>1.01103814655726</v>
       </c>
       <c r="F8">
-        <v>1.047815103486557</v>
+        <v>1.025908088286861</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035870926104874</v>
+        <v>1.04394330397576</v>
       </c>
       <c r="J8">
-        <v>1.034219667713963</v>
+        <v>1.026865035776163</v>
       </c>
       <c r="K8">
-        <v>1.041784165767752</v>
+        <v>1.035749685023747</v>
       </c>
       <c r="L8">
-        <v>1.031804900811811</v>
+        <v>1.022070646533659</v>
       </c>
       <c r="M8">
-        <v>1.050514008193464</v>
+        <v>1.03674819137623</v>
       </c>
       <c r="N8">
-        <v>1.01541539718036</v>
+        <v>1.012861877421529</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027379679639352</v>
+        <v>0.9966609612031982</v>
       </c>
       <c r="D9">
-        <v>1.037573611831102</v>
+        <v>1.018053005769103</v>
       </c>
       <c r="E9">
-        <v>1.027527272866359</v>
+        <v>1.00422055549824</v>
       </c>
       <c r="F9">
-        <v>1.045792579392228</v>
+        <v>1.016925761453883</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035476350159882</v>
+        <v>1.041537307802499</v>
       </c>
       <c r="J9">
-        <v>1.033233497982454</v>
+        <v>1.022332183039607</v>
       </c>
       <c r="K9">
-        <v>1.040731064815256</v>
+        <v>1.0308598216878</v>
       </c>
       <c r="L9">
-        <v>1.030717739772449</v>
+        <v>1.017245526269471</v>
       </c>
       <c r="M9">
-        <v>1.048923539973763</v>
+        <v>1.029750071559281</v>
       </c>
       <c r="N9">
-        <v>1.015085878154152</v>
+        <v>1.011337976623646</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0261758245541</v>
+        <v>0.9905815753929869</v>
       </c>
       <c r="D10">
-        <v>1.036585226591829</v>
+        <v>1.013317490206812</v>
       </c>
       <c r="E10">
-        <v>1.02651478229755</v>
+        <v>0.9995187724159335</v>
       </c>
       <c r="F10">
-        <v>1.044450423562777</v>
+        <v>1.01071548214976</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035208952928712</v>
+        <v>1.039825859451306</v>
       </c>
       <c r="J10">
-        <v>1.032576224308934</v>
+        <v>1.019173922514198</v>
       </c>
       <c r="K10">
-        <v>1.040028735522865</v>
+        <v>1.027450385530723</v>
       </c>
       <c r="L10">
-        <v>1.029994616308769</v>
+        <v>1.013896721014748</v>
       </c>
       <c r="M10">
-        <v>1.047866098998709</v>
+        <v>1.024893923472142</v>
       </c>
       <c r="N10">
-        <v>1.014866092077952</v>
+        <v>1.010275784066495</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025655443213868</v>
+        <v>0.9878862473884801</v>
       </c>
       <c r="D11">
-        <v>1.03615805701446</v>
+        <v>1.011222910460976</v>
       </c>
       <c r="E11">
-        <v>1.026077623753849</v>
+        <v>0.9974428197471191</v>
       </c>
       <c r="F11">
-        <v>1.04387075039505</v>
+        <v>1.007969357530277</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035092145322789</v>
+        <v>1.039057990335288</v>
       </c>
       <c r="J11">
-        <v>1.032291674710407</v>
+        <v>1.01777180261605</v>
       </c>
       <c r="K11">
-        <v>1.039724574725024</v>
+        <v>1.025936237863225</v>
       </c>
       <c r="L11">
-        <v>1.029681905224921</v>
+        <v>1.012413122406312</v>
       </c>
       <c r="M11">
-        <v>1.047408918930367</v>
+        <v>1.022742532251079</v>
       </c>
       <c r="N11">
-        <v>1.01477090285362</v>
+        <v>1.009804149160527</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025462286848936</v>
+        <v>0.9868751956895165</v>
       </c>
       <c r="D12">
-        <v>1.035999510508889</v>
+        <v>1.010437997802907</v>
       </c>
       <c r="E12">
-        <v>1.025915434366085</v>
+        <v>0.9966654438567415</v>
       </c>
       <c r="F12">
-        <v>1.043655659820562</v>
+        <v>1.006940364385625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035048604846685</v>
+        <v>1.038768624474268</v>
       </c>
       <c r="J12">
-        <v>1.032185989775638</v>
+        <v>1.017245598205088</v>
       </c>
       <c r="K12">
-        <v>1.039611590141812</v>
+        <v>1.025367917701722</v>
       </c>
       <c r="L12">
-        <v>1.029565812874547</v>
+        <v>1.011856808756846</v>
       </c>
       <c r="M12">
-        <v>1.047239208718094</v>
+        <v>1.021935795049929</v>
       </c>
       <c r="N12">
-        <v>1.014735542747969</v>
+        <v>1.00962713999714</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025503713341329</v>
+        <v>0.9870925243653608</v>
       </c>
       <c r="D13">
-        <v>1.036033513662052</v>
+        <v>1.010606680649835</v>
       </c>
       <c r="E13">
-        <v>1.025950215876336</v>
+        <v>0.9968324818516893</v>
       </c>
       <c r="F13">
-        <v>1.043701787224699</v>
+        <v>1.007161498899761</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035057951335138</v>
+        <v>1.03883088398451</v>
       </c>
       <c r="J13">
-        <v>1.032208659104034</v>
+        <v>1.017358718299411</v>
       </c>
       <c r="K13">
-        <v>1.039635825954365</v>
+        <v>1.025490094771087</v>
       </c>
       <c r="L13">
-        <v>1.029590712227631</v>
+        <v>1.011976380324791</v>
       </c>
       <c r="M13">
-        <v>1.047275607271512</v>
+        <v>1.022109192597792</v>
       </c>
       <c r="N13">
-        <v>1.014743127720206</v>
+        <v>1.009665192646397</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025639474054594</v>
+        <v>0.9878028778291295</v>
       </c>
       <c r="D14">
-        <v>1.036144948984459</v>
+        <v>1.011158171560404</v>
       </c>
       <c r="E14">
-        <v>1.026064213225598</v>
+        <v>0.9973786911515135</v>
       </c>
       <c r="F14">
-        <v>1.043852966321531</v>
+        <v>1.007884485760475</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.0350885493689</v>
+        <v>1.039034156530202</v>
       </c>
       <c r="J14">
-        <v>1.03228293856028</v>
+        <v>1.017728417643029</v>
       </c>
       <c r="K14">
-        <v>1.03971523549256</v>
+        <v>1.025889381939593</v>
       </c>
       <c r="L14">
-        <v>1.02967230771228</v>
+        <v>1.012367245413352</v>
       </c>
       <c r="M14">
-        <v>1.047394888441597</v>
+        <v>1.022676004268129</v>
       </c>
       <c r="N14">
-        <v>1.01476798002633</v>
+        <v>1.009789555106523</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025723138844797</v>
+        <v>0.9882392265192019</v>
       </c>
       <c r="D15">
-        <v>1.036213624360202</v>
+        <v>1.011497041630557</v>
       </c>
       <c r="E15">
-        <v>1.026134476091468</v>
+        <v>0.997714389344178</v>
       </c>
       <c r="F15">
-        <v>1.043946142743368</v>
+        <v>1.008328742442654</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03510738158476</v>
+        <v>1.039158846533111</v>
       </c>
       <c r="J15">
-        <v>1.03232870587686</v>
+        <v>1.01795548058207</v>
       </c>
       <c r="K15">
-        <v>1.03976416161463</v>
+        <v>1.026134607782423</v>
       </c>
       <c r="L15">
-        <v>1.029722589704555</v>
+        <v>1.012607369918744</v>
       </c>
       <c r="M15">
-        <v>1.047468395716731</v>
+        <v>1.023024217189173</v>
       </c>
       <c r="N15">
-        <v>1.014783292023463</v>
+        <v>1.009865935346046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026210379581699</v>
+        <v>0.9907590933558147</v>
       </c>
       <c r="D16">
-        <v>1.03661359361386</v>
+        <v>1.013455549214361</v>
       </c>
       <c r="E16">
-        <v>1.026543821713312</v>
+        <v>0.9996556810730221</v>
       </c>
       <c r="F16">
-        <v>1.044488926117711</v>
+        <v>1.010896498830054</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035216683577858</v>
+        <v>1.039876245763</v>
       </c>
       <c r="J16">
-        <v>1.032595110182965</v>
+        <v>1.019266231326069</v>
       </c>
       <c r="K16">
-        <v>1.040048920792749</v>
+        <v>1.027550059343689</v>
       </c>
       <c r="L16">
-        <v>1.030015378594429</v>
+        <v>1.013994459054206</v>
       </c>
       <c r="M16">
-        <v>1.047896455414054</v>
+        <v>1.025035653536295</v>
       </c>
       <c r="N16">
-        <v>1.014872409084038</v>
+        <v>1.010306832947841</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026516253969276</v>
+        <v>0.9923225960741185</v>
       </c>
       <c r="D17">
-        <v>1.036864701387914</v>
+        <v>1.014672083267281</v>
       </c>
       <c r="E17">
-        <v>1.02680093121882</v>
+        <v>1.000862501979109</v>
       </c>
       <c r="F17">
-        <v>1.044829799975853</v>
+        <v>1.012491645354289</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03528497250869</v>
+        <v>1.040318994367357</v>
       </c>
       <c r="J17">
-        <v>1.032762234009925</v>
+        <v>1.020079036487266</v>
       </c>
       <c r="K17">
-        <v>1.040227530971736</v>
+        <v>1.028427657020061</v>
       </c>
       <c r="L17">
-        <v>1.03019914709136</v>
+        <v>1.014855425293264</v>
       </c>
       <c r="M17">
-        <v>1.048165154344613</v>
+        <v>1.026284139296206</v>
       </c>
       <c r="N17">
-        <v>1.014928304735331</v>
+        <v>1.010580219296864</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026694751637976</v>
+        <v>0.9932285211055586</v>
       </c>
       <c r="D18">
-        <v>1.037011246110678</v>
+        <v>1.015377433927709</v>
       </c>
       <c r="E18">
-        <v>1.026951019950279</v>
+        <v>1.001562574086473</v>
       </c>
       <c r="F18">
-        <v>1.045028769470612</v>
+        <v>1.013416592043968</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035324705547723</v>
+        <v>1.040574664609132</v>
       </c>
       <c r="J18">
-        <v>1.032859719656374</v>
+        <v>1.020549810377481</v>
       </c>
       <c r="K18">
-        <v>1.040331706580781</v>
+        <v>1.028935908960195</v>
       </c>
       <c r="L18">
-        <v>1.030306375236676</v>
+        <v>1.015354389867255</v>
       </c>
       <c r="M18">
-        <v>1.048321949191326</v>
+        <v>1.027007687701852</v>
       </c>
       <c r="N18">
-        <v>1.014960905722573</v>
+        <v>1.010738556793992</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026755629314438</v>
+        <v>0.9935364065047103</v>
       </c>
       <c r="D19">
-        <v>1.037061227212396</v>
+        <v>1.015617230279994</v>
       </c>
       <c r="E19">
-        <v>1.027002216810699</v>
+        <v>1.001800635819995</v>
       </c>
       <c r="F19">
-        <v>1.045096637208958</v>
+        <v>1.013731057806866</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035338236716917</v>
+        <v>1.040661407854325</v>
       </c>
       <c r="J19">
-        <v>1.032892960575595</v>
+        <v>1.020709774616519</v>
       </c>
       <c r="K19">
-        <v>1.040367226932962</v>
+        <v>1.029108599309312</v>
       </c>
       <c r="L19">
-        <v>1.030342943849427</v>
+        <v>1.015523983188268</v>
       </c>
       <c r="M19">
-        <v>1.048375423542915</v>
+        <v>1.027253615544589</v>
       </c>
       <c r="N19">
-        <v>1.014972021462936</v>
+        <v>1.010792357042597</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02648342760117</v>
+        <v>0.9921554748036748</v>
       </c>
       <c r="D20">
-        <v>1.036837751838336</v>
+        <v>1.01454200043927</v>
       </c>
       <c r="E20">
-        <v>1.026773333261235</v>
+        <v>1.000733421157844</v>
       </c>
       <c r="F20">
-        <v>1.044793212574526</v>
+        <v>1.012321070327401</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035277655960396</v>
+        <v>1.040271759074503</v>
       </c>
       <c r="J20">
-        <v>1.03274430266327</v>
+        <v>1.019992175170228</v>
       </c>
       <c r="K20">
-        <v>1.040208368264331</v>
+        <v>1.02833387668246</v>
       </c>
       <c r="L20">
-        <v>1.030179426417067</v>
+        <v>1.014763386486647</v>
       </c>
       <c r="M20">
-        <v>1.048136318517304</v>
+        <v>1.02615067401853</v>
       </c>
       <c r="N20">
-        <v>1.014922307864425</v>
+        <v>1.010551004264691</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025599492127206</v>
+        <v>0.9875939729805142</v>
       </c>
       <c r="D21">
-        <v>1.036112130640348</v>
+        <v>1.010995963751522</v>
       </c>
       <c r="E21">
-        <v>1.026030638565784</v>
+        <v>0.9972180214747467</v>
       </c>
       <c r="F21">
-        <v>1.043808441593959</v>
+        <v>1.007671834747625</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035079543226271</v>
+        <v>1.038974413242063</v>
       </c>
       <c r="J21">
-        <v>1.032261064840265</v>
+        <v>1.017619700985979</v>
       </c>
       <c r="K21">
-        <v>1.039691851509226</v>
+        <v>1.025771966414674</v>
       </c>
       <c r="L21">
-        <v>1.029648278139655</v>
+        <v>1.012252291667312</v>
       </c>
       <c r="M21">
-        <v>1.047359760146556</v>
+        <v>1.022509305103457</v>
       </c>
       <c r="N21">
-        <v>1.014760661709265</v>
+        <v>1.009752984327692</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025044517094998</v>
+        <v>0.9846685399064622</v>
       </c>
       <c r="D22">
-        <v>1.035656618099681</v>
+        <v>1.008726406923407</v>
       </c>
       <c r="E22">
-        <v>1.025564781587093</v>
+        <v>0.9949713094720694</v>
       </c>
       <c r="F22">
-        <v>1.043190584741319</v>
+        <v>1.004696625270976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034954097446572</v>
+        <v>1.038134674671933</v>
       </c>
       <c r="J22">
-        <v>1.031957289395722</v>
+        <v>1.016096713044614</v>
       </c>
       <c r="K22">
-        <v>1.039367064536761</v>
+        <v>1.024126951744475</v>
       </c>
       <c r="L22">
-        <v>1.029314686283415</v>
+        <v>1.010643048291108</v>
       </c>
       <c r="M22">
-        <v>1.046872126015633</v>
+        <v>1.020175611754556</v>
       </c>
       <c r="N22">
-        <v>1.014659013609341</v>
+        <v>1.00924065538014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025338644334394</v>
+        <v>0.9862249632568129</v>
       </c>
       <c r="D23">
-        <v>1.035898025561081</v>
+        <v>1.009933430083928</v>
       </c>
       <c r="E23">
-        <v>1.025811635818158</v>
+        <v>0.9961658777776858</v>
       </c>
       <c r="F23">
-        <v>1.043517997681559</v>
+        <v>1.006278910295094</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035020682215169</v>
+        <v>1.038582156573671</v>
       </c>
       <c r="J23">
-        <v>1.032118320823233</v>
+        <v>1.016907116358988</v>
       </c>
       <c r="K23">
-        <v>1.039539242849185</v>
+        <v>1.025002325025637</v>
       </c>
       <c r="L23">
-        <v>1.029491494826847</v>
+        <v>1.011499091430367</v>
       </c>
       <c r="M23">
-        <v>1.047130570816514</v>
+        <v>1.021417044896665</v>
       </c>
       <c r="N23">
-        <v>1.014712900429375</v>
+        <v>1.009513276505402</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026498260157467</v>
+        <v>0.9922310083453301</v>
       </c>
       <c r="D24">
-        <v>1.03684992893961</v>
+        <v>1.014600792332242</v>
       </c>
       <c r="E24">
-        <v>1.026785803216395</v>
+        <v>1.00079175909232</v>
       </c>
       <c r="F24">
-        <v>1.044809744403059</v>
+        <v>1.012398162732229</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035280962298815</v>
+        <v>1.040293110626967</v>
       </c>
       <c r="J24">
-        <v>1.03275240505125</v>
+        <v>1.020031434311014</v>
       </c>
       <c r="K24">
-        <v>1.040217027081626</v>
+        <v>1.028376263201285</v>
       </c>
       <c r="L24">
-        <v>1.030188337220324</v>
+        <v>1.014804984805886</v>
       </c>
       <c r="M24">
-        <v>1.048149347978711</v>
+        <v>1.026210995649389</v>
       </c>
       <c r="N24">
-        <v>1.014925017598499</v>
+        <v>1.010564208749464</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027847309027563</v>
+        <v>0.9989651115735257</v>
       </c>
       <c r="D25">
-        <v>1.037957605001606</v>
+        <v>1.019851798528677</v>
       </c>
       <c r="E25">
-        <v>1.027921013879582</v>
+        <v>1.006009767062299</v>
       </c>
       <c r="F25">
-        <v>1.046314367722711</v>
+        <v>1.019285649211233</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035579126846466</v>
+        <v>1.042177833683833</v>
       </c>
       <c r="J25">
-        <v>1.033488421631137</v>
+        <v>1.023527354106262</v>
       </c>
       <c r="K25">
-        <v>1.041003368948799</v>
+        <v>1.03214956345858</v>
       </c>
       <c r="L25">
-        <v>1.030998512208949</v>
+        <v>1.018515500034926</v>
       </c>
       <c r="M25">
-        <v>1.049334215871869</v>
+        <v>1.031591779409307</v>
       </c>
       <c r="N25">
-        <v>1.015171087567408</v>
+        <v>1.011739862366881</v>
       </c>
     </row>
   </sheetData>
